--- a/DateBase/orders/Dang Nguyen_2025-5-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-2.xlsx
@@ -862,6 +862,9 @@
       <c r="C51" t="str">
         <v>646_芍药莎拉_Sarah_undefined_5stems</v>
       </c>
+      <c r="F51" t="str">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -923,7 +926,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012106181010351215152210201841216581020105510322125110810101097133636315151050</v>
+        <v>012106181010351215152210201841216581020105510322125110810101097133636315151058</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-2.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -866,9 +866,92 @@
         <v>8</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>5</v>
+      </c>
+      <c r="C52" t="str">
+        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>1</v>
+      </c>
+      <c r="C53" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F55" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F56" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F57" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F58" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -926,7 +1009,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012106181010351215152210201841216581020105510322125110810101097133636315151058</v>
+        <v>012106181010351215152210201841216581020105510322125110810101097133636315151058121210582710100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-2.xlsx
@@ -948,6 +948,9 @@
       <c r="C61" t="str">
         <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
       </c>
+      <c r="F61" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1009,7 +1012,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012106181010351215152210201841216581020105510322125110810101097133636315151058121210582710100</v>
+        <v>012106181010351215152210201841216581020105510322125110810101097133636315151058121210582710101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-2.xlsx
@@ -949,7 +949,7 @@
         <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
       </c>
       <c r="F61" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +1012,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012106181010351215152210201841216581020105510322125110810101097133636315151058121210582710101</v>
+        <v>0121061810103512151522102018412165810201055103221251108101010971336363151510581212105827101010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-2.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -952,9 +952,164 @@
         <v>10</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>2</v>
+      </c>
+      <c r="C62" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F62" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F63" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F64" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>227_多头卡布奇诺_Cappuccino spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F65" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F66" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>224_折射_Reflex_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F67" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F68" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F69" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>323_木绣球_Green snowball viburnum_undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F71" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>344_钢草_steal grass_Xanthorrhoea preissii Endl._1bunch</v>
+      </c>
+      <c r="F72" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F73" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F74" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>3</v>
+      </c>
+      <c r="C75" t="str">
+        <v>326_红继木_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F75" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>526_大刺秦_Eryngium_undefined_1bunch</v>
+      </c>
+      <c r="F76" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>733_芍药弗莱明_Fleming_undefined_10stems</v>
+      </c>
+      <c r="F77" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>757_芍药老忠诚_Old Faith_undefined_10stems</v>
+      </c>
+      <c r="F78" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
+      </c>
+      <c r="F79" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L80"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1012,7 +1167,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0121061810103512151522102018412165810201055103221251108101010971336363151510581212105827101010</v>
+        <v>0121061810103512151522102018412165810201055103221251108101010971336363151510581212105827101010844384341015103101555990</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-2.xlsx
@@ -1106,6 +1106,9 @@
       <c r="A80" t="str">
         <v>4</v>
       </c>
+      <c r="C80" t="str">
+        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-5-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-2.xlsx
@@ -1109,6 +1109,9 @@
       <c r="C80" t="str">
         <v>646_芍药莎拉_Sarah_undefined_5stems</v>
       </c>
+      <c r="F80" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1170,7 +1173,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0121061810103512151522102018412165810201055103221251108101010971336363151510581212105827101010844384341015103101555990</v>
+        <v>0121061810103512151522102018412165810201055103221251108101010971336363151510581212105827101010844384341015103101555991</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-2.xlsx
@@ -1110,7 +1110,7 @@
         <v>646_芍药莎拉_Sarah_undefined_5stems</v>
       </c>
       <c r="F80" t="str">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1173,7 +1173,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0121061810103512151522102018412165810201055103221251108101010971336363151510581212105827101010844384341015103101555991</v>
+        <v>01210618101035121515221020184121658102010551032212511081010109713363631515105812121058271010108443843410151031015559915</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-2.xlsx
@@ -1175,6 +1175,9 @@
       <c r="G2" t="str">
         <v>01210618101035121515221020184121658102010551032212511081010109713363631515105812121058271010108443843410151031015559915</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
